--- a/data/labeled_data/Aske.xlsx
+++ b/data/labeled_data/Aske.xlsx
@@ -1,13 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B54FF94-AD25-42FB-B048-56A3FE81DE78}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="4783" yWindow="3386" windowWidth="17588" windowHeight="10988" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Unique" sheetId="1" r:id="rId1"/>
+    <sheet name="Shared" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,12 +20,1331 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="327">
+  <si>
+    <t xml:space="preserve">The same whale spiked up btc decides to drop the hammer.. there will be chaos_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shorted the DOW at 24..4k_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uptrend is based off short-selling strats, shorts tend to congregate around delivery estimates and earnings reports. about 2 days after, they close their short positions, which causes a strong spike up._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I really want to know who is buying at these levels._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the forecast for the day buy or sell i am new please guide_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">God Bless Donald Trump. Tesla will be banned in China or at least they will have huge duties ..._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [PESSIMISTICVALUE]  usd incoming till december_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I think it will go up to  [OPTIMISTICVALUE]  area "Bull trap"_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anyone know what they plan on announcing today?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Target 5k  [PESSIMISTICVALUE]  dec 2018, are you ready!!!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is trying to force the fed to abandon the rate rise,, below 24k and u know what fomc will bring.._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [OPTIMISTICVALUE]  today??_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i would be extremely careful as the second target of the rising wedge is exactly at the neck of this huge H&amp;amp;S.; the perfect storm that might not happen_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luckily my portfolio is 35 percent into bonds_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is this a fan club or what? market crashing yet this stock going up_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is good to be hodlers these days_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the present issue in money inflows into to the market.  just not enough cash to lift all the sectors at the same time. .  you can pull the data of wsj._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP500 heading to 2900. This is a Buy Mkt_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine I give it a try, It’s weak_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Buffet..Where going to need your HELP" pretty Soon..._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I congratulate you people who bought today and pity those of you who sold. *The news* of the last two months is the fact that Models 3 at 35K, **NOW**. Sales will EXPLODE. There is literally nothing negative since it reached $ [OPTIMISTICVALUE]  but the stock is 275 now, ...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We’ll be back in same position!!!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does anyone have anything to offer more than what a program can tell me?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tesla needs 1billion usd by February. If shares are not at  [OPTIMISTICVALUE] . Convertibles._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sell fast posible you can_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The people here Know who's the best and it is not you!!!!!!!!!!!!!!!!!!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timber?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">green light?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Going higher_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So let me get this Autodata reported 2017 sales data correct:  GM sold 23.300 Chevy Bolts in 2017 to Tesla's 1,800 Model 3s and Tesla is a leader in electric car roll out?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tether bot in bitfinex is being used to defend BTC price now. Looks like it's out of resource to pump again._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">futures - bears 130 bulls 0_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Without Musk the equity is worth zero_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Right after the president's inauguration in Russia this thing is going down. Insider info._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">another round of sale off after mobs' lunch break._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Any of the bears in here planning to target Pinterest or Uber IPO's? The latter of these, at least, is looking awfully dicey. No gains for the private sector, inflated investment prices, and big plans to capture these "gains" from the public markets. Lyft ...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bored now. These sideways *******. Need any big red or green candle_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When the dollar falls the so-called financial expert say, the stock marked is up due to dollar weakens. Today usd is up 0.5 percent against euro and all basket currencies. The job data on friday was bad, no important data has been annonced so far! Why is D...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As long as it closes above 268.5 today and 271 tomorrow - which is quite likely --- it will start moving north from there_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tethers are printed 40000000 on Jan  [PESSIMISTICVALUE]  and 31. BFX bots will perform price action with them. Be careful. nnhttp://omnichest.info/lookupadd.aspx?address=1NTMakcgVwQpMdGxRQnFKyb3G1FAJysSfz&amp;amp;page;=1_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dow Jones had 20-Day Moving Average near previous high (24.373). Once the index moves above this level, then its next target will be 100-Day &amp;amp; 50 Day MAs near 24,700/ 24,800. As long as Dow Jones trades above its 20-Day MA, its will be in a short term uptr...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Just for info now:. $TSLA short interest $10.4 bn, 35.4 mm shares shorted 27.76% of float_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Who's shorting from 6750? Anyone?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US first quarter GDP expected lower because of shout down government 800.000 workers not getting paid...._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ultimately we believe the company's guidance is aggressive," analysts from Wedbush Securities said in a note to clients. Musk has long resisted the need to raise capital, but he told a conference call with analysts it was now the right time. Several analys...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wake up people. There is newborn crypto currency Petro, backed by oil, gas, gold and diamonds. Oh, I forgot, what is BTC backed by?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What Trump was trying to achieve at was so called partial optimization. By reducing US trade deficits (achieving at partial optimization). the US will sacrifice total optimization, that is, global economy as well as economy in th US._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">again and again  [OPTIMISTICVALUE] _x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you are looking into alts MTC and POLL would be the best choice_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">see how they rigg up now all day this_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Volkswagen will buy 50 billion euros ($56.57 billion) worth of battery cells for electric cars and has identified South Korea's SKI, LG Chem and Samsung (KS:005930) SDI as strategic battery cell suppliers as well as China's Contemporary Amperex Technology...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Still  [PESSIMISTICVALUE] .7k till 1.6 cryptogeorge? Lol_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">well done trump, no christmas rally thanks to you_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">do u people think its early to jump in ?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AS I said 5.000 next 6,000-7,000_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">only goes up_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If your that worried about one position your trade size is to big_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KGN Btc  [OPTIMISTICVALUE] $ in week_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hold tight_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.zerohedge.com/news/2018-10-25/analyst-erupts-tesla-they-used-every-trick-every-fraud-put-lipstick-q3-results_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soem people here should stay humble...they made some money (not as much as they say) once in their lifetime of investing and now are giving lessons of life to the others, these people are the losers in the long run, do not follow the so called genious, to ...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIX isn’t buying it_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ouch broke 260. More down trend to come_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmm ...money moving to the alt coins now_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I find this technical study very good ...    .  https://www.tradingview.com/chart/DJI/FJcuEq8a-Trade-War-Technical-Bearish/_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somebody went short_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [OPTIMISTICVALUE] $ sooon btc_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I wonder what happens when election season kicks off..._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it seems that anaother red day today._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So many people will regret for not buying precious metal with this thing_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hodl !_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jobs cut really! What about semitruck or model Y or the model 3 X or S to many orders so they cut 10% of work force?!?! Cmon!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When its boring expect action weather down or up_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Looks like Capital Markets are running out of gas. They just don't know what to come up with next in order to propel these markets anymore._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tesla made $313 millions and need pay suppliers $600 millions this is the way to make profit nice!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">price is way below  [PESSIMISTICVALUE]  already on other exchanges._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buy now with sl  [PESSIMISTICVALUE] _x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Irrespective of Musk production drama, it's shorting time (started 1st day @ [OPTIMISTICVALUE] -343, 2nd day @342-330, 3rd today @332-310) --------. . Next 4 days. 05Jul2018 307 -286-287. 06jul2018  280-266-268. 09jul2108  277-267-273. 10jul 2018  277-263-276. . So the bo...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What can you spot from monthly candle, newbie!!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What about S America ,... Brazil ?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No blood in the streets yet... max pain is at $90. Even Warren might buy some at that price._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Its a good price .. it don’t matter which direction it goes !_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Where is Irina?missed her comments today_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">china will tariffs on car import from US_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Be? Do not fall in love. . Copy-paste. . "The mistake of fanatics is to consider that a speculator knows the product and values it, that's why he buys it; it's not like that, the speculator buys because it rises and gives it a yield, be it an stock, an ind...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chaos come first then the same situatio is waiting for us_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trending up.  The trend is your friend._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goodbye BTC... RIP. We will miss you._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Dow needs a lot of adjustments to go up.  DOW can not go up without adjustment._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How many time did we shorts on this forum warned that betting on China is a big mistake by Elon._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTC once again attempted to stay above the daily MA50, however, it pulled back. The price rebounded from Fib50%= [OPTIMISTICVALUE] /past weekly close(8232.3) &amp;amp; the BB is becoming narrower (8706-8030). The daily TI continue to exert selling pressures which are always bein...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sorry Bears ... Trump kicked your Assy again :) lol_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Markets are up but investors have lost confidence in this stock -$ [PESSIMISTICVALUE]  today_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [PESSIMISTICVALUE] k drop from kumar sell and now its the pits?.... kumar... you have strike  [PESSIMISTICVALUE] .... wanna beeee long Bitcoin lmao_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scalper pls help_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the fact Audi launches its own electric vehicle simply means that TSLA is at least one decade ahead with their technology compared to the competition. decade in technology terms is comparable to centuries in mechanical terms. I assume that makes very clear...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">..good mourning_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Just follow the trend up_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open your eyes and look the big picrure, general market is down, FB crash etc, it has nothing to do with any analyst comments or your belife on Tesla, it is market risk, ur tsla goes down when the market is down, thats all you need to know._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTC will reach 4500USD before  [PESSIMISTICVALUE] /26/0:00:01_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thats what bulls have been saying since  [PESSIMISTICVALUE] 5k,  [PESSIMISTICVALUE] 2lk,  [PESSIMISTICVALUE] 0k, 9k, 8k, 7k, now 6666..GL bulls I wish you all the best  so that your dreams can come true to $50k, &amp;gt; $ [PESSIMISTICVALUE]  milllion (two Aventados S)...:):).  5555 (MC=95) 7/7/ [PESSIMISTICVALUE] 8 (&amp;gt;7/ [PESSIMISTICVALUE] 8/ [PESSIMISTICVALUE] 8) &amp;gt; 4444 (MC=76) 7/24/ [PESSIMISTICVALUE] 8 (&amp;gt;7/ [PESSIMISTICVALUE] 8...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hello guys, does anyone here use IG markets? Had an issue with platform on 5th feb 18, 20:10-20:20 Gmt_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 Year Olds Hand pinned by Falcon Wing Door Submitted by RCorsa on July 25, 2017_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Its the time to breka 8600. Now or never, really guys_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the world economy will be the 6th and final one of Trump's bankruptcies._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coming Q will be extremely strong for Ford. expect more than 40 billion revenue._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's worst than in  [PESSIMISTICVALUE] _x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can see this is a joke right? I can smell Ponzi....history doesn't repeat but it rhymes. This is not going to end well for those holding on_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">my bear case was that it touches 290 and falls, and bull case is that it its's 294 and retest 290 and takes off._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1% distance to re-entering downward channel. Pullback to 12.600 for support unlikely due to volume disapproval._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.nytimes.com/interactive/2019/02/27/us/politics/cohen-testimony-trump-denials.html?action=click&amp;amp;module=Top%20Stories&amp;amp;pgtype=Homepage_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$50 stock at best._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opened position @ [OPTIMISTICVALUE] . Target 6K. Believe me it will fall huge since it rallied without any correction and bottom confirmation. That's it._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, hope and prayer._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Where is the fiat money going to be reflected ? in Q1 or in Q2?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4H is at M/BB, and BB is toughly narrowing. Stil, above M/KC. EMA6,  [PESSIMISTICVALUE] , 12 all together. MACD down. https://invst.ly/7t [PESSIMISTICVALUE] ly_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Its time to climb down into the weightless room where they keep Hal (the computer) and disconnect him before he brings down the ship_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's a good news at least for few months. Might provide cash for the company_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anemic and red_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [PESSIMISTICVALUE] ... was very supportive... accommodative... it feels like a fake invisible hand ;)_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When will this short squeeze be what Elon promised?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9k coming_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23350 tg achieved at 2.45_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rule#3 Don't listen to Lol its laughable!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riss see the volume_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buy or sell?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lol I spelled out the movement last week, almost verbatim. Better luck next time shorty_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the jesus coin prayer is appropriate about now_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My Buy call roaring_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guys. Musk made 851 million dollars in the past hour and a half by the stock increase. If this isnt true he is done with Fraud allegations. Logic says it is true and stock is going to  [OPTIMISTICVALUE] . PPL are all over option calls!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indian has no substantial amount in bitcoin prob less than  [PESSIMISTICVALUE] % of the total available market._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the plunge protection team has arrived lol_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMO Tesla should bounce to  [OPTIMISTICVALUE]  or higher. The next inflection point for the bears should come in the week before the 5/2 earnings report. We could see some downside there._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discount buys if you can get them https://invst.ly/9r4rf.... Those Asia devils are a tricky bunch looking to trap a bunch of shorts before the after lunch crowd..._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great time to buy tommarow will go up 250 to 400 points_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">your late to the party milton_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dont panic nothing bad will retest  [OPTIMISTICVALUE]  again_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find Exit._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is why I like TSLA... Smart people with a sense of humor: https://twitter.com/elonmusk/status/1104462447652438016_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The bullish implications from this are quite wonderful. Http://tradingview.com/x/ugzF7NWk_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hey' Market makers...Listen Up....I Think you have Transmission Problems..You better Get AAMCOXXX_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can’t blame Elon for reaching for the ring with electric cars. But he has overreached in financial and business model and is suffering consequences thereof...._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buy bitcoin and hold_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">like I told everyone...you need to be watching the markets in NANO Seconds! very very Dangerous Right Now!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I just don't know why it is up 10% for 2 days. Tesla hasn't made a solid profit yet, but it owes a lot of debts more and more._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don't understand, no news, nobody talk about it but bch is best performing coin in this train, just go and go in a shadow and silence..._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nxt stop 23.900_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What wrong with this stock? Why goes down?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Let's all talk about short. I think Crypto has some smart bots in this forum. Whenever everyone is talking positive, it reacts in the other way_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25580 is the level to watch. Weekly close below indicate March low_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You think this company has integrity? selling cars without break test! This people are criminals risking people life only to make 5000 junk cars.sell now before is to late_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Korea Will Not Ban Cryptocurrency Trading https://ripplenews.tech/ [PESSIMISTICVALUE] /01/31/south-korea-will-not-ban-cryptocurrency-trading/_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://invst.ly/9dccj_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Target  [PESSIMISTICVALUE]  usd for tesla_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confirmed. Tp  [PESSIMISTICVALUE] ._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Could be heading to a lower low from a lower high! Just saying..._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elon promises LEVEL 5 autonomy in one year, with LIDAR. No demo. no insights. when will the con stop lying?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">when this all ends, people will start asking questions. where did all this billions of dollars go. who benefited the most from this pyramid game._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06,242 Millions USD We Fiis Investment Inc just Invest In DOW Market , next 2.06,242 millions USD in DOW market now next up 500 points from here on 26500 around Dubai Investment Inc will be Invest ._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Next support $ [PESSIMISTICVALUE] ..._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">um, im still seeing positive divergence on the four hour RSI and that looks alot like an inverted H/S on the 6hr._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">overstretched p/e stock valuations , significant potential for large correction on slightest bit of unexpected market news... good price point for building shorts_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Theese shorts are insane. Market's doing well while Tesla is falling so deep, and the reason isn't in news or any events. Hardly rising price week by week can be crashed in a day. **** What's the bottom?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Respect for Gun Law protests,_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No more free market. Ppt for the western world is a form of KGB on the east folks. Good luck._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">just wait til they need to raise more capital for the 920 million debt payment in march_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">its crossed 7980 it move upwards if touch 7945 it  move downwards let see the trend,,..._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50 points down from my sell price_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the BOD is a circus_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gray you are somethin else bro. big old + [PESSIMISTICVALUE] _x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not looking good_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Short at close tomorrow bad news every day yet it goes up all end of quarter window dressing bottom falls out monday mark this post_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">does anyone know how to buy Cardano by any chance?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Going down first..Before going bullish again.._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">investors are finally seeing Tesla's smoke-and-mirror shenanigans. it doesn't work anymore._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Will the transfer be faster if I do it through GDAX rather than directly from coinbase._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximus the merciful ,,, keep it above 24k tonight._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is insane , first it jumps up 15% then down 15% last week, friday down 7% and now down almost 5%. That means tesla is down 27%in two weeks._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">More bleeding have to redraw black line to make draw, tom will be clear how to draw it .._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">breakdown_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GM and Google have way more advanced autonomous driving technology than Tesla. They are worried about lawsuits and insurances if any of their cars get involved in fatal accidents. That's what it means to be called "fully autonomous driving"_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://invst.ly/96p0z  waiting for this from yesterday!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sell 499_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">well this company, not just it did not earn a dime, it loosing money for so long time_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What a tease ;-)))) nnnnhttps://www.newsbtc.com/ [PESSIMISTICVALUE] /07/24/sec-postpones-five-bitcoin-etf-proposal-decisions-until-september/_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How is this possible. If this is not manipulation in its best then what else_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In my view, Tesla will break soon the barrière of $ [OPTIMISTICVALUE] -$380 towards $400.. . . The past years, Tesla had a lot of issues, which most of them are solved.. . . Knowing about Elon Musk who still will buy $20 million of shares in the coming days, weeks, will m...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">looks like whales are done spawning and need to feed_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">knowing that it's gonna be red EOD, short it when it's green and get yourself some nice christmas presents_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maybe go private a 2 40 no 4 20 or 1 40_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ok I am tired of  [PESSIMISTICVALUE] .1K nonsense. Time to go up up and more up! 12-13-15-20-50-100K_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revenues at graphics chipmaker Nvidia surged by 66 per cent in its first quarter to $3.2bn, surpassing analysts’ forecasts thanks to strong growth from customers in both data centres and video gamers.. https://www.ft.com/content/0c20ceec-5489-11e8-b24e-cad...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This may be out there but could Tesla have an imminent SEC investigation.  Announcing going private at a known/ floated price may quell downside.   Speculation on my part._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it can not be ruled out that there will be a break out north on the Bfinex chart and south on the other chart like Gdax lol_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sell sell sell_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oversold._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I wouldn't bid before binance opens for trade. Why? Because I can't bid right now!! :( lol_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20k next week maybe even this Friday!!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Far away from 420_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fyi, gold is flashing sell signals again, kumar_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biggest fall of 2018 today_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Now down 10% in pre-market!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">© ★ I spend 105M to buy bitcoin and  [PESSIMISTICVALUE]  major altcoins_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dow intraday long above  [OPTIMISTICVALUE]  Targets 26842 26860. Short below 26747 Targets 26725 26707_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only until this stock actual shows a real revenue and earnings stream will it come back to a normal rational valuation. Shorting this thing is a day to day trade, short interest this high is as we all know really dangerous. The whole market is nuts , I was...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can someone please ask GB to unblock me? cheers!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waiting for the next Tweet of mass destruction from POTUS_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tesla surprised me today with $279 test.  We are on top of the channel now.  Let's see if it will turn back from here towards $ [PESSIMISTICVALUE] _x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IF we dont break this support below  [PESSIMISTICVALUE] $ then we Are going to retest 3920-3940 before 3550_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Short nq 6545 TP 6490 Stoploss 6580_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THIS is what I have been SAYING. https://www.forbes.com/sites/larrymagid/2019/03/12/for-safety-sake-tesla-should-expand-voice-controls-asap/#437908084a2b_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">June  [PESSIMISTICVALUE]  on the way to cash_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">us gone mad with no idea what to do_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What would happen if tesla was profitable? Stock price would sky rocket right?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Just some Short Covering / refresh and new distribution_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insanity_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A genuious like Elon on productionside and someone like Warren on finance would make tesla unstoppable. Elon got this my baby-problem._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">whos getting a good laugh on this ? :)_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My 401k is getting killed but my trading account is doing great._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why the down fall??? Is it too early for Bulls_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seems that BTC just crucified all crypto bears._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1st TG 25500_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fantastic buying opportunity!   20% margin on M3 without only selling high end models restricted by supply 'Not Demand'.  Almost $200M non-recurring charges and anticipated M S/X declines to cater for updated powertrain as they limited models offered to mo...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">top  [PESSIMISTICVALUE]  gambling site that accept btc are going to sell at the start of the super bowl game so what does that tell you_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this is just a wave 2 out of 5 and it looks like to be zigzag, fast &amp;amp; furious.. watch out, the 3rd and 5th waves downhill are going to hit 17K and 14K very roughly..._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silly bulls ..._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No pullback till 9k_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the dow is currently maintaining a weekly advance of 1.3%.. however, it is still in the red for the year. it needs to break above 24719 to get out._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Up we go_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This slow drop is the butter on my bread._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Right Now the Curbs Are on...Because Danger Ahead...Bear Trap...Be very Very Careful...._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you held Tesla year to day you would lose 11% while Tesla lost almost $6 in EPS._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://invst.ly/6yn85  seems we can climb around 96xx and will decide whether to turn back or go up_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">will printest and zoom have an effect on dow?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">here comes the reality dump. stairs up escalator down. short or get out._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jafari stated that Her team warned investors to keep an eye on BTC price, predicting that, “The next meaningful level is down at $7.667 to $7,198.”_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My memory of today's crash_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://finance.yahoo.com/news/brodsky-smith-llc-announces-investigation-233500308.html?.tsrc=rss_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://medium.com/prysmatic-labs/ethereum- [PESSIMISTICVALUE] -0-prysm-demo-release-v0-0-0-78d33e9cdbdf3 [PESSIMISTICVALUE]  ETH = validator_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The day is not over..._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">put my last Buy at 265_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">omg it’s up  [PESSIMISTICVALUE] ..merry Xmas baggies_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30k soon_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ [PESSIMISTICVALUE]  next nothing holding_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As I posted " ... U/KC( [PESSIMISTICVALUE] ;1) was rejected - so might be heading to M/KC (EMA [PESSIMISTICVALUE] ) ~8050... " And now adding Sorin's Inv-H&amp;amp;S.; https://invst.ly/83xme_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">will sell off later in day_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">show me the money._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hello everyone, i am doing a university dissertation on crypto and was wondering if you lot could do a quick survey for me please_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The minor Feds are trying pump up the jam..._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dax bankruptcy down 10%_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">That's it folks. If you're not in, get in. Train is leaving the station. Fireworks at 9k._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">----It is very fairly common to see a pullback near to neck line after formation of the pattern. It should generally be seen as a healthy thing as it gives better confirmation of neckline as resistance.---- . http://tutorials.topstockresearch.com/Tutorials...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Need to catch Elon margin call it's close guys :)_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Still looking weak ********_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">where is the (follow me  [OPTIMISTICVALUE]  guy) why is he not sharing his wisdom? Any can predict that the market go up when there is plenty of free money around but when u need real thought and insight, the nowhere to be found_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ill buy this ********when the stock price starts with a 1, not a 2 or 3._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THE TIME HAS COME: btc - [PESSIMISTICVALUE] .02%_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanks Trump for leading the DOW below it's 200 moving average snapping a 501 day record. He is a narcissistic president who thinks he knows everything about how business operates. Do you remember Trump Casino and Trump University? He is a POS. I voted for...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"We will delay $1k full self-driving option price increase until May 10 for those unable to order by May 1" It looks like not many people bought that option._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keep an eye on the 30M candle...thinking a jump is coming_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What do Warmongers WANT?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What a fairy tale. He smoked dope and got it alwrite_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">just buy the dips..._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blow off top_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Well...Elon was successful at launching some more hard earned money into space yesterday.  I expect the same to happen here._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">all in or no? what do you guys think_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Long waited. First stop  [PESSIMISTICVALUE] ._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it will go down ??_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I found the best App for Calculate &amp;gt; Crypto Investmen Calculator_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I dont know much dips u can buy....buy it till it goes down to 12k of dji....._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What a day!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current real work related experience: you are a singaporean company with a bank account in singapore dollars. You signed a contract in Egypt with a rate calculated in usd équivalent paid in Egyptian pound. You have to delivered a bank guarantee for the con...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it will rise till the end of raising rates_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smear campaign is in full swing. The production is all time high but sales are decreasing based on US data, OK???!?! :) 8 RO-RO ships delivered M3 to EU in this Q. That is at least 32K M3s right there (It can go over 40K, each ships carries 4-5K cars). Elo...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">do your own due diligence, don't trust anyone including me, have good risk mgmt intact, safe trading GL :)_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAMMER TIME_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I mean seriously shorts, define the 'lies of Musk' you mention every day, since I clearly must have different definition. Thanks._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">short that garbage!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dow drop  [PESSIMISTICVALUE]  this week_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cnbc.com/2019/03/05/morgan-stanley-against-the-law-for-automakers-to-sell-cars-like-tesla-does.html_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good morning NYC. Prepare your purchase orders its going to be a big party_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For those of you who are fed up with stocks and want to feel the hype of cryptos SC siacoin will x5 in a few days.it's worth it to get some fast profit_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://invst.ly/87sh7_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If we cant break this 4h channel down, i see my target from june ( [PESSIMISTICVALUE] ) finally hit._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Just reading predictions with expectation of uplift by 3-5 % in q1 ....we have halve of it during 4 days_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buying tesla now ! Easily 10% return._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.bbc.com/news/business-46209149_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jobs Reports is laughable_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I quit my long when Model Y will be widely available. By that time my profit should cover its price. Does anyone want Model Y for free? Sign in now before it's too late._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">..throw your charts away baggies and pray_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red Again... This waiting for the world to fall apart stuff is not easy. Go Doom!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I think it will break the support this week end; better to buy on monday._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drop Are done, let kicks short *****! Let go_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There are inversions in both swaps and gov bonds. The bears are waking up from a very long hibernation and will be very hungry._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This market in October has been wild!!!. With big corretions, hope next month it settle a bit.. What do you guys think??_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [PESSIMISTICVALUE] % up within 28 minutes, that's what you'd call a nice trade!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">short-term 1st target:  [PESSIMISTICVALUE] _x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I m astonished how Musk has Credibility left_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Watch App coin APPC, will fly x3_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25000 looking imminent_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tesla shares fall on report SEC asks judge to hold Elon Musk in contempt for violating deal. Cnbc_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@michael som r u going to short again? Price is above 13k_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The low volume concerns me._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tesla doesn't make solar nor the rockets_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do not buy rush. 7k coming. I will wait btc at 6k_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Market overreacting_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">She's rollin_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After months of uncertainty, there are indications that India may not, after all, opt for a blanket ban on virtual currencies. A finance ministry panel set up to study them may even suggest that they be treated as commodities.. . . https://qz.com/1324595/i...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I dont understand the dummys that keep investing at the moment._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What a short play. I think we'll hit  [PESSIMISTICVALUE]  on the rebound, or maybe slightly lower (fibo).786 / .618 depending on where you measure it from. Hopefully it'll come tomorrow, and we'll start the bulll run._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [PESSIMISTICVALUE] .5K and NO ****Sunday!!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">so bad, the timing is everything._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chamath Palihapitiya... watch his video talking about Tesla. Case closed._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bitcoin will go to 6.000_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SK are you still short?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auto tariffs will obviously affect international expansion of TSLA... China does have its own EV cars, though not as good yet._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imagine how the last get rich fast people feel like ! A tsunami of sells are on the way..._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seems to ne trap market_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">between tesla and oil... no problem who invest in Tesla... because Tesla sell product... Tesla bigger oil cheaper... so no problem who invest.._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As expected, the price has been trading sideways mostly within 6.600 - 7,180 as the previously oversold indicators harmonized. 6,000 didn't break so I am waiting for the 1D Channel Down (RSI = 34.234, Highs/Lows = -637.6137) Lower High to short. I previous...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stop speculating and look at the market people._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I argue it is not bad news actually. Tesla will be buying cheaper batteries from Chinese producers and with Maxwell deal producing truly its own batteries. Alas people just react without much thinking._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I even sold my bicycle and invest in CryptoCrap,  not only I didn't get profit, now I have to walk to go to work , no more bicycle_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Up up_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMMENT
+</t>
+  </si>
+  <si>
+    <t>LABEL</t>
+  </si>
+  <si>
+    <t>COMMENT</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -46,13 +1367,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -330,13 +1660,1991 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B251"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A222" workbookViewId="0">
+      <selection activeCell="D233" sqref="D233"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="54.921875" customWidth="1"/>
+    <col min="2" max="2" width="5.765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A12" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A15" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A16" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A17" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A18" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A19" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A20" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A21" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A22" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A23" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A24" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A25" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A26" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A27" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A28" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A29" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A30" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A31" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A32" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A33" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A34" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A35" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A36" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A37" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B37" s="1"/>
+    </row>
+    <row r="38" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A38" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B38" s="1"/>
+    </row>
+    <row r="39" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A39" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B39" s="1"/>
+    </row>
+    <row r="40" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A40" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B40" s="1"/>
+    </row>
+    <row r="41" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A41" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B41" s="1"/>
+    </row>
+    <row r="42" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A42" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B42" s="1"/>
+    </row>
+    <row r="43" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A43" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B43" s="1"/>
+    </row>
+    <row r="44" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A44" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B44" s="1"/>
+    </row>
+    <row r="45" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A45" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B45" s="1"/>
+    </row>
+    <row r="46" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A46" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B46" s="1"/>
+    </row>
+    <row r="47" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A47" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B47" s="1"/>
+    </row>
+    <row r="48" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A48" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B48" s="1"/>
+    </row>
+    <row r="49" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A49" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B49" s="1"/>
+    </row>
+    <row r="50" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A50" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B50" s="1"/>
+    </row>
+    <row r="51" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A51" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B51" s="1"/>
+    </row>
+    <row r="52" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A52" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B52" s="1"/>
+    </row>
+    <row r="53" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A53" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B53" s="1"/>
+    </row>
+    <row r="54" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A54" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B54" s="1"/>
+    </row>
+    <row r="55" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A55" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B55" s="1"/>
+    </row>
+    <row r="56" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A56" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B56" s="1"/>
+    </row>
+    <row r="57" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A57" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B57" s="1"/>
+    </row>
+    <row r="58" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A58" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B58" s="1"/>
+    </row>
+    <row r="59" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A59" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B59" s="1"/>
+    </row>
+    <row r="60" spans="1:2" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A60" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B60" s="1"/>
+    </row>
+    <row r="61" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A61" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B61" s="1"/>
+    </row>
+    <row r="62" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A62" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B62" s="1"/>
+    </row>
+    <row r="63" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A63" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B63" s="1"/>
+    </row>
+    <row r="64" spans="1:2" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A64" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B64" s="1"/>
+    </row>
+    <row r="65" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A65" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B65" s="1"/>
+    </row>
+    <row r="66" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A66" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B66" s="1"/>
+    </row>
+    <row r="67" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A67" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B67" s="1"/>
+    </row>
+    <row r="68" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A68" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B68" s="1"/>
+    </row>
+    <row r="69" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A69" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B69" s="1"/>
+    </row>
+    <row r="70" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A70" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B70" s="1"/>
+    </row>
+    <row r="71" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A71" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B71" s="1"/>
+    </row>
+    <row r="72" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A72" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B72" s="1"/>
+    </row>
+    <row r="73" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A73" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B73" s="1"/>
+    </row>
+    <row r="74" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A74" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B74" s="1"/>
+    </row>
+    <row r="75" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A75" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B75" s="1"/>
+    </row>
+    <row r="76" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A76" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B76" s="1"/>
+    </row>
+    <row r="77" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A77" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B77" s="1"/>
+    </row>
+    <row r="78" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A78" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B78" s="1"/>
+    </row>
+    <row r="79" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A79" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B79" s="1"/>
+    </row>
+    <row r="80" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A80" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B80" s="1"/>
+    </row>
+    <row r="81" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A81" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B81" s="1"/>
+    </row>
+    <row r="82" spans="1:2" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A82" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B82" s="1"/>
+    </row>
+    <row r="83" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A83" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B83" s="1"/>
+    </row>
+    <row r="84" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A84" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B84" s="1"/>
+    </row>
+    <row r="85" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A85" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B85" s="1"/>
+    </row>
+    <row r="86" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A86" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B86" s="1"/>
+    </row>
+    <row r="87" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A87" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B87" s="1"/>
+    </row>
+    <row r="88" spans="1:2" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A88" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B88" s="1"/>
+    </row>
+    <row r="89" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A89" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B89" s="1"/>
+    </row>
+    <row r="90" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A90" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B90" s="1"/>
+    </row>
+    <row r="91" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A91" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B91" s="1"/>
+    </row>
+    <row r="92" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A92" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B92" s="1"/>
+    </row>
+    <row r="93" spans="1:2" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A93" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B93" s="1"/>
+    </row>
+    <row r="94" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A94" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B94" s="1"/>
+    </row>
+    <row r="95" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A95" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B95" s="1"/>
+    </row>
+    <row r="96" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A96" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B96" s="1"/>
+    </row>
+    <row r="97" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A97" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B97" s="1"/>
+    </row>
+    <row r="98" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A98" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B98" s="1"/>
+    </row>
+    <row r="99" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A99" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B99" s="1"/>
+    </row>
+    <row r="100" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A100" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B100" s="1"/>
+    </row>
+    <row r="101" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A101" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B101" s="1"/>
+    </row>
+    <row r="102" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A102" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B102" s="1"/>
+    </row>
+    <row r="103" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A103" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B103" s="1"/>
+    </row>
+    <row r="104" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A104" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B104" s="1"/>
+    </row>
+    <row r="105" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A105" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B105" s="1"/>
+    </row>
+    <row r="106" spans="1:2" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A106" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B106" s="1"/>
+    </row>
+    <row r="107" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A107" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B107" s="1"/>
+    </row>
+    <row r="108" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A108" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B108" s="1"/>
+    </row>
+    <row r="109" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A109" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B109" s="1"/>
+    </row>
+    <row r="110" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A110" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B110" s="1"/>
+    </row>
+    <row r="111" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A111" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B111" s="1"/>
+    </row>
+    <row r="112" spans="1:2" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A112" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B112" s="1"/>
+    </row>
+    <row r="113" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A113" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B113" s="1"/>
+    </row>
+    <row r="114" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A114" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B114" s="1"/>
+    </row>
+    <row r="115" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A115" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B115" s="1"/>
+    </row>
+    <row r="116" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A116" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B116" s="1"/>
+    </row>
+    <row r="117" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A117" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B117" s="1"/>
+    </row>
+    <row r="118" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A118" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B118" s="1"/>
+    </row>
+    <row r="119" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A119" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B119" s="1"/>
+    </row>
+    <row r="120" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A120" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B120" s="1"/>
+    </row>
+    <row r="121" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A121" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B121" s="1"/>
+    </row>
+    <row r="122" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A122" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B122" s="1"/>
+    </row>
+    <row r="123" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A123" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B123" s="1"/>
+    </row>
+    <row r="124" spans="1:2" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A124" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B124" s="1"/>
+    </row>
+    <row r="125" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A125" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B125" s="1"/>
+    </row>
+    <row r="126" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A126" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B126" s="1"/>
+    </row>
+    <row r="127" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A127" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B127" s="1"/>
+    </row>
+    <row r="128" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A128" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B128" s="1"/>
+    </row>
+    <row r="129" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A129" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B129" s="1"/>
+    </row>
+    <row r="130" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A130" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B130" s="1"/>
+    </row>
+    <row r="131" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A131" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B131" s="1"/>
+    </row>
+    <row r="132" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A132" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B132" s="1"/>
+    </row>
+    <row r="133" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A133" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B133" s="1"/>
+    </row>
+    <row r="134" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A134" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B134" s="1"/>
+    </row>
+    <row r="135" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A135" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B135" s="1"/>
+    </row>
+    <row r="136" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A136" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B136" s="1"/>
+    </row>
+    <row r="137" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A137" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B137" s="1"/>
+    </row>
+    <row r="138" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A138" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B138" s="1"/>
+    </row>
+    <row r="139" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A139" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B139" s="1"/>
+    </row>
+    <row r="140" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A140" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B140" s="1"/>
+    </row>
+    <row r="141" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A141" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B141" s="1"/>
+    </row>
+    <row r="142" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A142" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B142" s="1"/>
+    </row>
+    <row r="143" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A143" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B143" s="1"/>
+    </row>
+    <row r="144" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A144" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B144" s="1"/>
+    </row>
+    <row r="145" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A145" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B145" s="1"/>
+    </row>
+    <row r="146" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A146" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B146" s="1"/>
+    </row>
+    <row r="147" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A147" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B147" s="1"/>
+    </row>
+    <row r="148" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A148" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B148" s="1"/>
+    </row>
+    <row r="149" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A149" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B149" s="1"/>
+    </row>
+    <row r="150" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A150" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B150" s="1"/>
+    </row>
+    <row r="151" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A151" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B151" s="1"/>
+    </row>
+    <row r="152" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A152" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B152" s="1"/>
+    </row>
+    <row r="153" spans="1:2" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A153" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B153" s="1"/>
+    </row>
+    <row r="154" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A154" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B154" s="1"/>
+    </row>
+    <row r="155" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A155" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B155" s="1"/>
+    </row>
+    <row r="156" spans="1:2" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A156" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B156" s="1"/>
+    </row>
+    <row r="157" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A157" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B157" s="1"/>
+    </row>
+    <row r="158" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A158" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B158" s="1"/>
+    </row>
+    <row r="159" spans="1:2" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A159" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B159" s="1"/>
+    </row>
+    <row r="160" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A160" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B160" s="1"/>
+    </row>
+    <row r="161" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A161" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B161" s="1"/>
+    </row>
+    <row r="162" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A162" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B162" s="1"/>
+    </row>
+    <row r="163" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A163" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B163" s="1"/>
+    </row>
+    <row r="164" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A164" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B164" s="1"/>
+    </row>
+    <row r="165" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A165" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B165" s="1"/>
+    </row>
+    <row r="166" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A166" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B166" s="1"/>
+    </row>
+    <row r="167" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A167" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B167" s="1"/>
+    </row>
+    <row r="168" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A168" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B168" s="1"/>
+    </row>
+    <row r="169" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A169" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B169" s="1"/>
+    </row>
+    <row r="170" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A170" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B170" s="1"/>
+    </row>
+    <row r="171" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A171" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B171" s="1"/>
+    </row>
+    <row r="172" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A172" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B172" s="1"/>
+    </row>
+    <row r="173" spans="1:2" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A173" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B173" s="1"/>
+    </row>
+    <row r="174" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A174" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B174" s="1"/>
+    </row>
+    <row r="175" spans="1:2" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A175" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B175" s="1"/>
+    </row>
+    <row r="176" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A176" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B176" s="1"/>
+    </row>
+    <row r="177" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A177" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B177" s="1"/>
+    </row>
+    <row r="178" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A178" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B178" s="1"/>
+    </row>
+    <row r="179" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A179" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B179" s="1"/>
+    </row>
+    <row r="180" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A180" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B180" s="1"/>
+    </row>
+    <row r="181" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A181" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B181" s="1"/>
+    </row>
+    <row r="182" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A182" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B182" s="1"/>
+    </row>
+    <row r="183" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A183" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B183" s="1"/>
+    </row>
+    <row r="184" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A184" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B184" s="1"/>
+    </row>
+    <row r="185" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A185" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B185" s="1"/>
+    </row>
+    <row r="186" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A186" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B186" s="1"/>
+    </row>
+    <row r="187" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A187" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B187" s="1"/>
+    </row>
+    <row r="188" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A188" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B188" s="1"/>
+    </row>
+    <row r="189" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A189" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B189" s="1"/>
+    </row>
+    <row r="190" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A190" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B190" s="1"/>
+    </row>
+    <row r="191" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A191" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B191" s="1"/>
+    </row>
+    <row r="192" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A192" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B192" s="1"/>
+    </row>
+    <row r="193" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A193" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B193" s="1"/>
+    </row>
+    <row r="194" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A194" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B194" s="1"/>
+    </row>
+    <row r="195" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A195" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B195" s="1"/>
+    </row>
+    <row r="196" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A196" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B196" s="1"/>
+    </row>
+    <row r="197" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A197" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B197" s="1"/>
+    </row>
+    <row r="198" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A198" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B198" s="1"/>
+    </row>
+    <row r="199" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A199" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B199" s="1"/>
+    </row>
+    <row r="200" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A200" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B200" s="1"/>
+    </row>
+    <row r="201" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A201" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B201" s="1"/>
+    </row>
+    <row r="202" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A202" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B202" s="1"/>
+    </row>
+    <row r="203" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A203" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B203" s="1"/>
+    </row>
+    <row r="204" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A204" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B204" s="1"/>
+    </row>
+    <row r="205" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A205" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B205" s="1"/>
+    </row>
+    <row r="206" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A206" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B206" s="1"/>
+    </row>
+    <row r="207" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A207" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B207" s="1"/>
+    </row>
+    <row r="208" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A208" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B208" s="1"/>
+    </row>
+    <row r="209" spans="1:2" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A209" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B209" s="1"/>
+    </row>
+    <row r="210" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A210" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B210" s="1"/>
+    </row>
+    <row r="211" spans="1:2" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A211" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B211" s="1"/>
+    </row>
+    <row r="212" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A212" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B212" s="1"/>
+    </row>
+    <row r="213" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A213" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B213" s="1"/>
+    </row>
+    <row r="214" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A214" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B214" s="1"/>
+    </row>
+    <row r="215" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A215" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B215" s="1"/>
+    </row>
+    <row r="216" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A216" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B216" s="1"/>
+    </row>
+    <row r="217" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A217" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B217" s="1"/>
+    </row>
+    <row r="218" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A218" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B218" s="1"/>
+    </row>
+    <row r="219" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A219" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B219" s="1"/>
+    </row>
+    <row r="220" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A220" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B220" s="1"/>
+    </row>
+    <row r="221" spans="1:2" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A221" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B221" s="1"/>
+    </row>
+    <row r="222" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A222" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B222" s="1"/>
+    </row>
+    <row r="223" spans="1:2" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A223" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B223" s="1"/>
+    </row>
+    <row r="224" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A224" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B224" s="1"/>
+    </row>
+    <row r="225" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A225" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B225" s="1"/>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B226" s="1"/>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B227" s="1"/>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B228" s="1"/>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B229" s="1"/>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B230" s="1"/>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B231" s="1"/>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B232" s="1"/>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B233" s="1"/>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B234" s="1"/>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B235" s="1"/>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B236" s="1"/>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B237" s="1"/>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B238" s="1"/>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B239" s="1"/>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B240" s="1"/>
+    </row>
+    <row r="241" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B241" s="1"/>
+    </row>
+    <row r="242" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B242" s="1"/>
+    </row>
+    <row r="243" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B243" s="1"/>
+    </row>
+    <row r="244" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B244" s="1"/>
+    </row>
+    <row r="245" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B245" s="1"/>
+    </row>
+    <row r="246" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B246" s="1"/>
+    </row>
+    <row r="247" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B247" s="1"/>
+    </row>
+    <row r="248" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B248" s="1"/>
+    </row>
+    <row r="249" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B249" s="1"/>
+    </row>
+    <row r="250" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B250" s="1"/>
+    </row>
+    <row r="251" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B251" s="1"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A188" r:id="rId1" xr:uid="{47074C2E-ADB3-4C72-B711-AB9CD384BC4F}"/>
+    <hyperlink ref="A184" r:id="rId2" xr:uid="{8A27CEDC-F386-4B66-94B7-C7936EB799EF}"/>
+    <hyperlink ref="A181" r:id="rId3" xr:uid="{FE018E28-3839-4204-97E7-F4CC76D944C8}"/>
+    <hyperlink ref="A140" r:id="rId4" xr:uid="{29036AE9-58A4-4C72-8181-395F713D43E2}"/>
+    <hyperlink ref="A139" r:id="rId5" xr:uid="{1C0DA1CF-6201-4240-8AC7-31293F30FEBF}"/>
+    <hyperlink ref="A134" r:id="rId6" xr:uid="{1B674884-97AE-4C7B-B49E-E5057E69DD8E}"/>
+    <hyperlink ref="A83" r:id="rId7" xr:uid="{60F4CE60-6E4C-4653-B503-3A914AF1B8C0}"/>
+    <hyperlink ref="A54" r:id="rId8" xr:uid="{BD51A9C2-3AB7-4F3E-B5B2-E65B65DC7948}"/>
+    <hyperlink ref="A12" r:id="rId9" xr:uid="{F8E71DB4-7C74-4678-B1AF-4135634708CC}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A895C986-5639-41B7-97E4-8502EF320921}">
+  <dimension ref="A1:B101"/>
+  <sheetViews>
+    <sheetView topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="55.3046875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A24" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A26" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A28" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A29" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A30" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A31" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A32" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A33" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A34" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A35" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A36" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A37" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A38" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A39" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A40" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A41" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A42" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A43" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A44" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A45" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A46" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A47" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A48" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A49" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A50" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A51" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A52" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A53" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A54" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A55" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A56" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A57" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A58" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A59" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A60" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A61" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A62" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A63" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A64" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A65" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A66" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A67" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A68" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A69" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A70" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A71" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A72" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A73" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A74" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A75" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A76" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A77" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A78" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A79" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A80" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A81" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A82" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A83" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A84" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A85" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A86" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A87" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A88" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A89" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A90" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A91" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A92" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A93" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A94" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A95" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A96" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A97" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A98" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A99" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A100" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A101" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A61" r:id="rId1" xr:uid="{D5864DC2-6911-4832-85F0-7E97A621681A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/labeled_data/Aske.xlsx
+++ b/data/labeled_data/Aske.xlsx
@@ -3,25 +3,35 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B54FF94-AD25-42FB-B048-56A3FE81DE78}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD0EB69-8ECB-4D82-BBD0-CB00F7DB2476}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4783" yWindow="3386" windowWidth="17588" windowHeight="10988" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="23657" windowHeight="15240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Unique" sheetId="1" r:id="rId1"/>
     <sheet name="Shared" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Shared!$A$1:$C$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Unique!$A$1:$B$225</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="331">
   <si>
     <t xml:space="preserve">The same whale spiked up btc decides to drop the hammer.. there will be chaos_x000D_
 </t>
@@ -59,10 +69,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Target 5k  [PESSIMISTICVALUE]  dec 2018, are you ready!!!_x000D_
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">It is trying to force the fed to abandon the rate rise,, below 24k and u know what fomc will bring.._x000D_
 </t>
   </si>
@@ -419,10 +425,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">BTC will reach 4500USD before  [PESSIMISTICVALUE] /26/0:00:01_x000D_
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">thats what bulls have been saying since  [PESSIMISTICVALUE] 5k,  [PESSIMISTICVALUE] 2lk,  [PESSIMISTICVALUE] 0k, 9k, 8k, 7k, now 6666..GL bulls I wish you all the best  so that your dreams can come true to $50k, &amp;gt; $ [PESSIMISTICVALUE]  milllion (two Aventados S)...:):).  5555 (MC=95) 7/7/ [PESSIMISTICVALUE] 8 (&amp;gt;7/ [PESSIMISTICVALUE] 8/ [PESSIMISTICVALUE] 8) &amp;gt; 4444 (MC=76) 7/24/ [PESSIMISTICVALUE] 8 (&amp;gt;7/ [PESSIMISTICVALUE] 8...Show more_x000D_
 </t>
   </si>
@@ -867,10 +869,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">June  [PESSIMISTICVALUE]  on the way to cash_x000D_
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">us gone mad with no idea what to do_x000D_
 </t>
   </si>
@@ -915,10 +913,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">top  [PESSIMISTICVALUE]  gambling site that accept btc are going to sell at the start of the super bowl game so what does that tell you_x000D_
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">this is just a wave 2 out of 5 and it looks like to be zigzag, fast &amp;amp; furious.. watch out, the 3rd and 5th waves downhill are going to hit 17K and 14K very roughly..._x000D_
 </t>
   </si>
@@ -987,10 +981,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">omg it’s up  [PESSIMISTICVALUE] ..merry Xmas baggies_x000D_
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">30k soon_x000D_
 </t>
   </si>
@@ -1327,6 +1317,38 @@
   </si>
   <si>
     <t>COMMENT</t>
+  </si>
+  <si>
+    <t>NEG</t>
+  </si>
+  <si>
+    <t>NEU</t>
+  </si>
+  <si>
+    <t>POS</t>
+  </si>
+  <si>
+    <t>INDEX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">top gambling site that accept btc are going to sell at the start of the super bowl game so what does that tell you
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">June on the way to cash
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">omg it’s up ..merry Xmas baggies
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Target 5k dec 2018, are you ready!!!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTC will reach 4500USD before
+</t>
   </si>
 </sst>
 </file>
@@ -1663,1367 +1685,1815 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A222" workbookViewId="0">
-      <selection activeCell="D233" sqref="D233"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="54.921875" customWidth="1"/>
-    <col min="2" max="2" width="5.765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="54.921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.23046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
-        <v>324</v>
+    <row r="1" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>319</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="131.15" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="5" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A7" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="8" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A9" s="1" t="s">
+      <c r="B10" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A10" s="1" t="s">
+      <c r="B11" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A12" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A11" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A12" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="13" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+        <v>109</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B14" s="1"/>
+        <v>110</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="15" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B15" s="1"/>
+        <v>111</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="16" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A17" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A18" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A17" s="1" t="s">
+      <c r="B18" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A19" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A18" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A19" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="20" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+        <v>116</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B21" s="1"/>
+        <v>117</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="22" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B22" s="1"/>
+        <v>118</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="23" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B23" s="1"/>
+        <v>119</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="24" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B24" s="1"/>
+        <v>120</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="25" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B25" s="1"/>
+        <v>121</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="26" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B26" s="1"/>
+        <v>122</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="27" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B27" s="1"/>
-    </row>
-    <row r="28" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+        <v>123</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B28" s="1"/>
+        <v>124</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="29" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B29" s="1"/>
+        <v>125</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="30" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A31" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A32" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B30" s="1"/>
-    </row>
-    <row r="31" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A31" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B31" s="1"/>
-    </row>
-    <row r="32" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A32" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B32" s="1"/>
+      <c r="B32" s="1" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="33" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B33" s="1"/>
-    </row>
-    <row r="34" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+        <v>129</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B34" s="1"/>
+        <v>130</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="35" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B35" s="1"/>
+        <v>131</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="36" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B36" s="1"/>
+        <v>132</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="37" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B37" s="1"/>
+        <v>133</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="38" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B38" s="1"/>
+        <v>134</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="39" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B39" s="1"/>
+        <v>135</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="40" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B40" s="1"/>
+        <v>136</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="41" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B41" s="1"/>
+        <v>137</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="42" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B42" s="1"/>
+        <v>138</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="43" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B43" s="1"/>
+        <v>139</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="44" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B44" s="1"/>
+        <v>140</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="45" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B45" s="1"/>
+        <v>141</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="46" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B46" s="1"/>
+        <v>142</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="47" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B47" s="1"/>
+        <v>143</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="48" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B48" s="1"/>
+        <v>144</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="49" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B49" s="1"/>
+        <v>145</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="50" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B50" s="1"/>
+        <v>146</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="51" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B51" s="1"/>
+        <v>147</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="52" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B52" s="1"/>
+        <v>148</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="53" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B53" s="1"/>
+        <v>149</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="54" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A54" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B54" s="1"/>
+        <v>150</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="55" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A55" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B55" s="1"/>
+        <v>151</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="56" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A56" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B56" s="1"/>
+        <v>152</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="57" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B57" s="1"/>
+        <v>153</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="58" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A58" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B58" s="1"/>
+        <v>154</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="59" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A59" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B59" s="1"/>
+        <v>155</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="60" spans="1:2" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A60" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B60" s="1"/>
+        <v>156</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="61" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A61" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B61" s="1"/>
+        <v>157</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="62" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A62" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B62" s="1"/>
+        <v>158</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="63" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A63" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B63" s="1"/>
+        <v>159</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="64" spans="1:2" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A64" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B64" s="1"/>
+        <v>160</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="65" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A65" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B65" s="1"/>
+        <v>161</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="66" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A66" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B66" s="1"/>
+        <v>162</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="67" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A67" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B67" s="1"/>
+        <v>163</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="68" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A68" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B68" s="1"/>
+        <v>164</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="69" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A69" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B69" s="1"/>
+        <v>165</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="70" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A70" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B70" s="1"/>
+        <v>166</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="71" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A71" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B71" s="1"/>
+        <v>167</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="72" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A72" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B72" s="1"/>
+        <v>168</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="73" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A73" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B73" s="1"/>
+        <v>169</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="74" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A74" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B74" s="1"/>
+        <v>170</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="75" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A75" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B75" s="1"/>
+        <v>171</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="76" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A76" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B76" s="1"/>
+        <v>172</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="77" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A77" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B77" s="1"/>
+        <v>173</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="78" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A78" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B78" s="1"/>
+        <v>174</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="79" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A79" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B79" s="1"/>
+        <v>175</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="80" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A80" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B80" s="1"/>
+        <v>176</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="81" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A81" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B81" s="1"/>
+        <v>177</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="82" spans="1:2" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A82" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B82" s="1"/>
+        <v>178</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="83" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A83" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="B83" s="1"/>
+        <v>179</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="84" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A84" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B84" s="1"/>
+        <v>180</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="85" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A85" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B85" s="1"/>
+        <v>181</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="86" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A86" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B86" s="1"/>
+        <v>182</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="87" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A87" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B87" s="1"/>
+        <v>183</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="88" spans="1:2" ht="87.45" x14ac:dyDescent="0.4">
       <c r="A88" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B88" s="1"/>
+        <v>184</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="89" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A89" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B89" s="1"/>
+        <v>185</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="90" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A90" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B90" s="1"/>
+        <v>186</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="91" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A91" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B91" s="1"/>
+        <v>187</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="92" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A92" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B92" s="1"/>
+        <v>188</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="93" spans="1:2" ht="87.45" x14ac:dyDescent="0.4">
       <c r="A93" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B93" s="1"/>
+        <v>189</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="94" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A94" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B94" s="1"/>
+        <v>190</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="95" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A95" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B95" s="1"/>
+        <v>191</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="96" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A96" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B96" s="1"/>
+        <v>192</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="97" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A97" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B97" s="1"/>
+        <v>193</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="98" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A98" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B98" s="1"/>
+        <v>194</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="99" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A99" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B99" s="1"/>
+        <v>195</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="100" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A100" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B100" s="1"/>
+        <v>196</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="101" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A101" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B101" s="1"/>
+        <v>197</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="102" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A102" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B102" s="1"/>
+        <v>198</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="103" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A103" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B103" s="1"/>
+        <v>199</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="104" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A104" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B104" s="1"/>
+        <v>200</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="105" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A105" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B105" s="1"/>
+        <v>201</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="106" spans="1:2" ht="87.45" x14ac:dyDescent="0.4">
       <c r="A106" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B106" s="1"/>
+        <v>202</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="107" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A107" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B107" s="1"/>
+        <v>203</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="108" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A108" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B108" s="1"/>
+        <v>204</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="109" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A109" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B109" s="1"/>
+        <v>205</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="110" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A110" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B110" s="1"/>
+        <v>206</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="111" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A111" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B111" s="1"/>
+        <v>207</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="112" spans="1:2" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A112" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B112" s="1"/>
+        <v>208</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="113" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A113" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B113" s="1"/>
+        <v>327</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="114" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A114" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B114" s="1"/>
+        <v>209</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="115" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A115" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B115" s="1"/>
+        <v>210</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="116" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A116" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B116" s="1"/>
+        <v>211</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="117" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A117" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B117" s="1"/>
+        <v>212</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="118" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A118" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B118" s="1"/>
+        <v>213</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="119" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A119" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B119" s="1"/>
+        <v>214</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="120" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A120" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B120" s="1"/>
+        <v>215</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="121" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A121" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B121" s="1"/>
+        <v>216</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="122" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A122" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B122" s="1"/>
+        <v>217</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="123" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A123" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B123" s="1"/>
+        <v>218</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="124" spans="1:2" ht="87.45" x14ac:dyDescent="0.4">
       <c r="A124" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B124" s="1"/>
-    </row>
-    <row r="125" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
+        <v>219</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A125" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B125" s="1"/>
+        <v>326</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="126" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A126" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B126" s="1"/>
+        <v>220</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="127" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A127" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B127" s="1"/>
+        <v>221</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="128" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A128" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B128" s="1"/>
+        <v>222</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="129" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A129" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B129" s="1"/>
+        <v>223</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="130" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A130" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B130" s="1"/>
+        <v>224</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="131" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A131" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="B131" s="1"/>
+        <v>225</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="132" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A132" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B132" s="1"/>
+        <v>226</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="133" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A133" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B133" s="1"/>
+        <v>227</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="134" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A134" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="B134" s="1"/>
+        <v>228</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="135" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A135" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B135" s="1"/>
+        <v>229</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="136" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A136" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B136" s="1"/>
+        <v>230</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="137" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A137" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B137" s="1"/>
+        <v>231</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="138" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A138" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B138" s="1"/>
+        <v>232</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="139" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A139" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="B139" s="1"/>
+        <v>233</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="140" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A140" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="B140" s="1"/>
+        <v>234</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="141" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A141" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B141" s="1"/>
+        <v>235</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="142" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A142" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B142" s="1"/>
+        <v>236</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="143" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A143" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="B143" s="1"/>
+        <v>328</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="144" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A144" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B144" s="1"/>
+        <v>237</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="145" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A145" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B145" s="1"/>
+        <v>238</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="146" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A146" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B146" s="1"/>
+        <v>239</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="147" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A147" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="B147" s="1"/>
+        <v>240</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="148" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A148" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B148" s="1"/>
+        <v>241</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="149" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A149" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B149" s="1"/>
+        <v>242</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="150" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A150" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B150" s="1"/>
+        <v>243</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="151" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A151" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B151" s="1"/>
+        <v>244</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="152" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A152" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B152" s="1"/>
+        <v>245</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="153" spans="1:2" ht="87.45" x14ac:dyDescent="0.4">
       <c r="A153" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B153" s="1"/>
+        <v>246</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="154" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A154" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="B154" s="1"/>
+        <v>247</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="155" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A155" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="B155" s="1"/>
+        <v>248</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="156" spans="1:2" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A156" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B156" s="1"/>
+        <v>249</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="157" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A157" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B157" s="1"/>
+        <v>250</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="158" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A158" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B158" s="1"/>
+        <v>251</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="159" spans="1:2" ht="87.45" x14ac:dyDescent="0.4">
       <c r="A159" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="B159" s="1"/>
+        <v>252</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="160" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A160" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B160" s="1"/>
+        <v>253</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="161" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A161" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="B161" s="1"/>
+        <v>254</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="162" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A162" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="B162" s="1"/>
+        <v>255</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="163" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A163" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="B163" s="1"/>
+        <v>256</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="164" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A164" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B164" s="1"/>
+        <v>257</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="165" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A165" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="B165" s="1"/>
+        <v>258</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="166" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A166" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="B166" s="1"/>
+        <v>259</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="167" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A167" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B167" s="1"/>
+        <v>260</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="168" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A168" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B168" s="1"/>
+        <v>261</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="169" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A169" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B169" s="1"/>
+        <v>262</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="170" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A170" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B170" s="1"/>
+        <v>263</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="171" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A171" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B171" s="1"/>
+        <v>264</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="172" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A172" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="B172" s="1"/>
+        <v>265</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="173" spans="1:2" ht="87.45" x14ac:dyDescent="0.4">
       <c r="A173" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B173" s="1"/>
+        <v>266</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="174" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A174" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="B174" s="1"/>
+        <v>267</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="175" spans="1:2" ht="87.45" x14ac:dyDescent="0.4">
       <c r="A175" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="B175" s="1"/>
+        <v>268</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="176" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A176" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B176" s="1"/>
+        <v>269</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="177" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A177" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B177" s="1"/>
+        <v>270</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="178" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A178" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B178" s="1"/>
+        <v>271</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="179" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A179" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B179" s="1"/>
+        <v>272</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="180" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A180" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B180" s="1"/>
+        <v>273</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="181" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A181" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="B181" s="1"/>
+        <v>274</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="182" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A182" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B182" s="1"/>
+        <v>275</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="183" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A183" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="B183" s="1"/>
+        <v>276</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="184" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A184" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="B184" s="1"/>
+        <v>277</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="185" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A185" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="B185" s="1"/>
+        <v>278</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="186" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A186" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="B186" s="1"/>
+        <v>279</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="187" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A187" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B187" s="1"/>
+        <v>280</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="188" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A188" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="B188" s="1"/>
+        <v>281</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="189" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A189" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="B189" s="1"/>
+        <v>282</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="190" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A190" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="B190" s="1"/>
+        <v>283</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="191" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A191" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="B191" s="1"/>
+        <v>284</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="192" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A192" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="B192" s="1"/>
+        <v>285</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="193" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A193" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B193" s="1"/>
+        <v>286</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="194" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A194" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="B194" s="1"/>
+        <v>287</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="195" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A195" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="B195" s="1"/>
+        <v>288</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="196" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A196" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="B196" s="1"/>
+        <v>289</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="197" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A197" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="B197" s="1"/>
+        <v>290</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="198" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A198" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="B198" s="1"/>
+        <v>291</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="199" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A199" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="B199" s="1"/>
+        <v>292</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="200" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A200" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="B200" s="1"/>
+        <v>293</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="201" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A201" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="B201" s="1"/>
+        <v>294</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="202" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A202" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B202" s="1"/>
+        <v>295</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="203" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A203" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="B203" s="1"/>
+        <v>296</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="204" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A204" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="B204" s="1"/>
+        <v>297</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="205" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A205" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="B205" s="1"/>
+        <v>298</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="206" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A206" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="B206" s="1"/>
+        <v>299</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="207" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A207" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="B207" s="1"/>
+        <v>300</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="208" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A208" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="B208" s="1"/>
+        <v>301</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="209" spans="1:2" ht="87.45" x14ac:dyDescent="0.4">
       <c r="A209" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="B209" s="1"/>
+        <v>302</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="210" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A210" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="B210" s="1"/>
+        <v>303</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="211" spans="1:2" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A211" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="B211" s="1"/>
+        <v>304</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="212" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A212" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="B212" s="1"/>
+        <v>305</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="213" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A213" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="B213" s="1"/>
+        <v>306</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="214" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A214" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="B214" s="1"/>
+        <v>307</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="215" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A215" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B215" s="1"/>
+        <v>308</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="216" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A216" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B216" s="1"/>
+        <v>309</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="217" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A217" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="B217" s="1"/>
+        <v>310</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="218" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A218" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="B218" s="1"/>
+        <v>311</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="219" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A219" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="B219" s="1"/>
+        <v>312</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="220" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A220" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="B220" s="1"/>
+        <v>313</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="221" spans="1:2" ht="87.45" x14ac:dyDescent="0.4">
       <c r="A221" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B221" s="1"/>
+        <v>314</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="222" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A222" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="B222" s="1"/>
+        <v>315</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="223" spans="1:2" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A223" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B223" s="1"/>
+        <v>316</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="224" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A224" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="B224" s="1"/>
+        <v>317</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="225" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A225" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="B225" s="1"/>
+        <v>318</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B226" s="1"/>
@@ -3104,6 +3574,7 @@
       <c r="B251" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B225" xr:uid="{86323A8B-8F21-4CE6-B9D2-7214EF8112BD}"/>
   <hyperlinks>
     <hyperlink ref="A188" r:id="rId1" xr:uid="{47074C2E-ADB3-4C72-B711-AB9CD384BC4F}"/>
     <hyperlink ref="A184" r:id="rId2" xr:uid="{8A27CEDC-F386-4B66-94B7-C7936EB799EF}"/>
@@ -3121,529 +3592,1140 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A895C986-5639-41B7-97E4-8502EF320921}">
-  <dimension ref="A1:B101"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="55.3046875" style="1" customWidth="1"/>
-    <col min="2" max="3" width="18" customWidth="1"/>
+    <col min="2" max="2" width="55.3046875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="43.75" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
+      <c r="C2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="29.15" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
+      <c r="C3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="72.900000000000006" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
+      <c r="C4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="29.15" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
+      <c r="C5" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="29.15" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A7" s="1" t="s">
+      <c r="C6" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="43.75" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A8" s="1" t="s">
+      <c r="C7" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="29.15" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A9" s="1" t="s">
+      <c r="C8" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A10" s="1" t="s">
+      <c r="C9" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="29.15" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A11" s="1" t="s">
+      <c r="C10" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C11" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="43.75" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A12" s="1" t="s">
+      <c r="C12" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A13" s="1" t="s">
+      <c r="C13" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="58.3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A14" s="1" t="s">
+      <c r="C14" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="29.15" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A15" s="1" t="s">
+      <c r="C15" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="29.15" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A16" s="1" t="s">
+      <c r="C16" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A17" s="1" t="s">
+      <c r="C17" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="58.3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A18" s="1" t="s">
+      <c r="C18" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A19" s="1" t="s">
+      <c r="C19" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="29.15" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A20" s="1" t="s">
+      <c r="C20" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="29.15" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A21" s="1" t="s">
+      <c r="C21" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" ht="87.45" x14ac:dyDescent="0.4">
-      <c r="A22" s="1" t="s">
+      <c r="C22" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="29.15" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A23" s="1" t="s">
+      <c r="C23" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="43.75" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A24" s="1" t="s">
+      <c r="C24" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="43.75" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A25" s="1" t="s">
+      <c r="C25" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="29.15" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A26" s="1" t="s">
+      <c r="C26" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="43.75" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A27" s="1" t="s">
+      <c r="C27" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="29.15" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A28" s="1" t="s">
+      <c r="C28" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="29.15" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A29" s="1" t="s">
+      <c r="C29" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A30" s="1" t="s">
+      <c r="C30" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="58.3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A31" s="1" t="s">
+      <c r="C31" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="43.75" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A32" s="1" t="s">
+      <c r="C32" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="29.15" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A33" s="1" t="s">
+      <c r="C33" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="29.15" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A34" s="1" t="s">
+      <c r="C34" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="43.75" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A35" s="1" t="s">
+      <c r="C35" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="29.15" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A36" s="1" t="s">
+      <c r="C36" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="87.45" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" ht="87.45" x14ac:dyDescent="0.4">
-      <c r="A37" s="1" t="s">
+      <c r="C37" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="43.75" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A38" s="1" t="s">
+      <c r="C38" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="87.45" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" ht="87.45" x14ac:dyDescent="0.4">
-      <c r="A39" s="1" t="s">
+      <c r="C39" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A40" s="1" t="s">
+      <c r="C40" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="72.900000000000006" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="A41" s="1" t="s">
+      <c r="C41" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" ht="87.45" x14ac:dyDescent="0.4">
-      <c r="A42" s="1" t="s">
+      <c r="C42" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="43.75" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A43" s="1" t="s">
+      <c r="C43" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="29.15" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A44" s="1" t="s">
+      <c r="C44" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="43.75" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A45" s="1" t="s">
+      <c r="C45" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="87.45" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" ht="87.45" x14ac:dyDescent="0.4">
-      <c r="A46" s="1" t="s">
+      <c r="C46" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="58.3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A47" s="1" t="s">
+      <c r="C47" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="72.900000000000006" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="A48" s="1" t="s">
+      <c r="C48" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A49" s="1" t="s">
+      <c r="C49" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="43.75" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A50" s="1" t="s">
+      <c r="C50" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="29.15" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A51" s="1" t="s">
+      <c r="C51" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="87.45" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" ht="87.45" x14ac:dyDescent="0.4">
-      <c r="A52" s="1" t="s">
+      <c r="C52" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="29.15" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A53" s="1" t="s">
+      <c r="C53" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="29.15" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A54" s="1" t="s">
+      <c r="C54" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="29.15" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A55" s="1" t="s">
+      <c r="C55" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A56" s="1" t="s">
+      <c r="C56" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A57" s="1" t="s">
+      <c r="C57" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="29.15" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A58" s="1" t="s">
+      <c r="C58" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A59" s="1" t="s">
+      <c r="C59" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A60" s="1" t="s">
+      <c r="C60" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="43.75" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A61" s="3" t="s">
+      <c r="C61" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="87.45" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" ht="87.45" x14ac:dyDescent="0.4">
-      <c r="A62" s="1" t="s">
+      <c r="C62" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="29.15" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A63" s="1" t="s">
+      <c r="C63" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="29.15" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A64" s="1" t="s">
+      <c r="C64" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="29.15" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A65" s="1" t="s">
+      <c r="C65" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="58.3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A66" s="1" t="s">
+      <c r="C66" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="29.15" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A67" s="1" t="s">
+      <c r="C67" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A68" s="1" t="s">
+      <c r="C68" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="29.15" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A69" s="1" t="s">
+      <c r="C69" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="29.15" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A70" s="1" t="s">
+      <c r="C70" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="43.75" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A71" s="1" t="s">
+      <c r="C71" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A72" s="1" t="s">
+      <c r="C72" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="43.75" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A73" s="1" t="s">
+      <c r="C73" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="29.15" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A74" s="1" t="s">
+      <c r="C74" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="58.3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A75" s="1" t="s">
+      <c r="C75" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="43.75" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A76" s="1" t="s">
+      <c r="C76" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="43.75" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A77" s="1" t="s">
+      <c r="C77" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A78" s="1" t="s">
+      <c r="C78" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="87.45" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" ht="87.45" x14ac:dyDescent="0.4">
-      <c r="A79" s="1" t="s">
+      <c r="C79" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="29.15" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A80" s="1" t="s">
+      <c r="C80" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="29.15" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A81" s="1" t="s">
+      <c r="C81" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="43.75" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A82" s="1" t="s">
+      <c r="C82" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A83" s="1" t="s">
+      <c r="C83" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="29.15" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A84" s="1" t="s">
+      <c r="C84" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="29.15" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A85" s="1" t="s">
+      <c r="C85" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="87.45" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" ht="87.45" x14ac:dyDescent="0.4">
-      <c r="A86" s="1" t="s">
+      <c r="C86" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="29.15" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A87" s="1" t="s">
+      <c r="C87" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A88" s="1" t="s">
+      <c r="C88" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="29.15" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A89" s="1" t="s">
+      <c r="C89" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="43.75" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A90" s="1" t="s">
+      <c r="C90" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="43.75" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A91" s="1" t="s">
+      <c r="C91" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="87.45" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" ht="87.45" x14ac:dyDescent="0.4">
-      <c r="A92" s="1" t="s">
+      <c r="C92" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A93" s="1" t="s">
+      <c r="C93" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="43.75" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A94" s="1" t="s">
+      <c r="C94" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="58.3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A95" s="1" t="s">
+      <c r="C95" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="29.15" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A96" s="1" t="s">
+      <c r="C96" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="87.45" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" ht="87.45" x14ac:dyDescent="0.4">
-      <c r="A97" s="1" t="s">
+      <c r="C97" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="29.15" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A98" s="1" t="s">
+      <c r="C98" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A99" s="1" t="s">
+      <c r="C99" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="72.900000000000006" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="A100" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A101" s="1" t="s">
-        <v>99</v>
+      <c r="C100" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C101" t="s">
+        <v>324</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C101" xr:uid="{C4586E1C-8DF8-45A6-A9EA-CE13802A414A}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="POS"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
-    <hyperlink ref="A61" r:id="rId1" xr:uid="{D5864DC2-6911-4832-85F0-7E97A621681A}"/>
+    <hyperlink ref="B61" r:id="rId1" xr:uid="{D5864DC2-6911-4832-85F0-7E97A621681A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/labeled_data/Aske.xlsx
+++ b/data/labeled_data/Aske.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD0EB69-8ECB-4D82-BBD0-CB00F7DB2476}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{377E5B25-A6BF-4BD5-A2FD-A86543B232E8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="23657" windowHeight="15240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2263" yWindow="2263" windowWidth="17588" windowHeight="10988" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Unique" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="331">
   <si>
     <t xml:space="preserve">The same whale spiked up btc decides to drop the hammer.. there will be chaos_x000D_
 </t>
@@ -1683,10 +1683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B251"/>
+  <dimension ref="A1:B325"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A323" workbookViewId="0">
+      <selection activeCell="A223" sqref="A223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1695,8 +1695,8 @@
     <col min="2" max="2" width="25.23046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
         <v>319</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -3495,83 +3495,805 @@
         <v>324</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B226" s="1"/>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B227" s="1"/>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B228" s="1"/>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B229" s="1"/>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B230" s="1"/>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B231" s="1"/>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B232" s="1"/>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B233" s="1"/>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B234" s="1"/>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B235" s="1"/>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B236" s="1"/>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B237" s="1"/>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B238" s="1"/>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B239" s="1"/>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B240" s="1"/>
-    </row>
-    <row r="241" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B241" s="1"/>
-    </row>
-    <row r="242" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B242" s="1"/>
-    </row>
-    <row r="243" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B243" s="1"/>
-    </row>
-    <row r="244" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B244" s="1"/>
-    </row>
-    <row r="245" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B245" s="1"/>
-    </row>
-    <row r="246" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B246" s="1"/>
-    </row>
-    <row r="247" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B247" s="1"/>
-    </row>
-    <row r="248" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B248" s="1"/>
-    </row>
-    <row r="249" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B249" s="1"/>
-    </row>
-    <row r="250" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B250" s="1"/>
-    </row>
-    <row r="251" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B251" s="1"/>
+    <row r="226" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A226" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B226" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A227" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B227" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A228" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B228" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A229" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B229" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A230" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B230" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A231" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B231" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A232" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B232" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A233" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B233" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A234" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B234" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A235" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B235" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A236" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B236" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A237" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B237" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A238" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B238" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A239" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B239" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A240" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B240" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A241" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B241" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A242" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B242" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A243" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B243" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A244" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B244" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A245" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B245" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A246" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B246" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A247" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B247" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A248" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B248" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A249" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B249" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A250" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B250" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A251" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B251" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A252" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B252" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A253" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B253" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A254" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B254" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A255" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B255" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A256" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B256" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A257" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B257" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A258" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B258" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A259" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B259" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A260" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B260" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A261" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B261" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A262" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B262" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A263" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B263" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A264" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B264" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A265" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B265" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A266" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B266" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A267" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B267" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A268" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B268" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A269" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B269" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A270" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B270" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A271" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B271" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A272" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B272" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A273" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B273" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A274" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B274" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A275" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B275" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A276" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B276" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A277" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B277" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A278" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B278" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A279" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B279" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A280" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B280" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A281" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B281" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A282" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B282" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A283" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B283" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A284" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B284" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A285" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B285" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A286" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B286" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A287" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B287" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A288" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B288" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A289" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B289" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A290" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B290" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A291" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B291" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A292" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B292" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A293" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B293" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A294" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B294" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A295" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B295" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A296" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B296" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A297" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B297" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A298" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B298" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A299" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B299" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A300" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B300" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A301" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B301" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A302" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B302" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A303" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B303" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A304" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B304" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A305" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B305" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A306" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B306" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A307" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B307" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A308" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B308" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A309" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B309" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A310" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B310" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A311" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B311" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A312" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B312" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A313" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B313" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A314" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B314" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A315" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B315" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A316" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B316" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A317" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B317" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A318" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B318" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A319" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B319" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A320" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B320" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A321" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B321" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A322" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B322" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A323" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B323" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A324" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B324" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A325" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B325" t="s">
+        <v>324</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:B225" xr:uid="{86323A8B-8F21-4CE6-B9D2-7214EF8112BD}"/>
@@ -3585,6 +4307,7 @@
     <hyperlink ref="A83" r:id="rId7" xr:uid="{60F4CE60-6E4C-4653-B503-3A914AF1B8C0}"/>
     <hyperlink ref="A54" r:id="rId8" xr:uid="{BD51A9C2-3AB7-4F3E-B5B2-E65B65DC7948}"/>
     <hyperlink ref="A12" r:id="rId9" xr:uid="{F8E71DB4-7C74-4678-B1AF-4135634708CC}"/>
+    <hyperlink ref="A285" r:id="rId10" xr:uid="{DEC0E613-E448-4EE0-B5E6-00EBCA77BD39}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3592,11 +4315,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A895C986-5639-41B7-97E4-8502EF320921}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3616,7 +4338,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="43.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3627,7 +4349,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="29.15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3638,7 +4360,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="72.900000000000006" hidden="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3649,7 +4371,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="29.15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3660,7 +4382,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="29.15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3671,7 +4393,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="43.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3682,7 +4404,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="29.15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3704,7 +4426,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="29.15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3726,7 +4448,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="43.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3748,7 +4470,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="58.3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3759,7 +4481,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="29.15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3770,7 +4492,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="29.15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3792,7 +4514,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="58.3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3814,7 +4536,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="29.15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3825,7 +4547,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="29.15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3847,7 +4569,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="29.15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3858,7 +4580,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="43.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3869,7 +4591,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="43.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3880,7 +4602,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="29.15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3891,7 +4613,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="43.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3902,7 +4624,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="29.15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3913,7 +4635,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="29.15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3935,7 +4657,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="58.3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3946,7 +4668,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="43.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3957,7 +4679,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="29.15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3968,7 +4690,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="29.15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3979,7 +4701,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="43.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:3" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3990,7 +4712,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="29.15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4001,7 +4723,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="87.45" hidden="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:3" ht="87.45" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4012,7 +4734,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="43.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:3" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4023,7 +4745,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="87.45" hidden="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:3" ht="87.45" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4045,7 +4767,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="72.900000000000006" hidden="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:3" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4067,7 +4789,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="43.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:3" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>42</v>
       </c>
@@ -4078,7 +4800,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="29.15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>43</v>
       </c>
@@ -4089,7 +4811,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="43.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:3" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>44</v>
       </c>
@@ -4100,7 +4822,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="87.45" hidden="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:3" ht="87.45" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4111,7 +4833,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="58.3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:3" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>46</v>
       </c>
@@ -4122,7 +4844,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="72.900000000000006" hidden="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:3" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4144,7 +4866,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="43.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:3" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4155,7 +4877,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="29.15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4166,7 +4888,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="87.45" hidden="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:3" ht="87.45" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4177,7 +4899,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="29.15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4188,7 +4910,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="29.15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4199,7 +4921,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="29.15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4232,7 +4954,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="29.15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4265,7 +4987,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="43.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:3" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4276,7 +4998,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="87.45" hidden="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:3" ht="87.45" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>61</v>
       </c>
@@ -4287,7 +5009,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="29.15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4298,7 +5020,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="29.15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4309,7 +5031,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="29.15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>64</v>
       </c>
@@ -4320,7 +5042,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="58.3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:3" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>65</v>
       </c>
@@ -4331,7 +5053,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="29.15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>66</v>
       </c>
@@ -4353,7 +5075,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="29.15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4364,7 +5086,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="29.15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4375,7 +5097,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="43.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:3" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4397,7 +5119,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="43.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:3" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4408,7 +5130,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="29.15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4419,7 +5141,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="58.3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:3" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4430,7 +5152,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="43.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:3" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4441,7 +5163,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="43.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:3" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4463,7 +5185,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="87.45" hidden="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:3" ht="87.45" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4474,7 +5196,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="29.15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4485,7 +5207,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="29.15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4496,7 +5218,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="43.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:3" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4518,7 +5240,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="29.15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4529,7 +5251,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="29.15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4540,7 +5262,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="87.45" hidden="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:3" ht="87.45" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4551,7 +5273,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="29.15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4573,7 +5295,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="29.15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4584,7 +5306,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="43.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:3" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4595,7 +5317,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="43.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:3" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>90</v>
       </c>
@@ -4606,7 +5328,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="87.45" hidden="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:3" ht="87.45" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>91</v>
       </c>
@@ -4628,7 +5350,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="43.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:3" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>93</v>
       </c>
@@ -4639,7 +5361,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="58.3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:3" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4650,7 +5372,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="29.15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4661,7 +5383,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="87.45" hidden="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:3" ht="87.45" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>96</v>
       </c>
@@ -4672,7 +5394,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="29.15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>97</v>
       </c>
@@ -4694,7 +5416,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="72.900000000000006" hidden="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:3" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>99</v>
       </c>
@@ -4717,13 +5439,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C101" xr:uid="{C4586E1C-8DF8-45A6-A9EA-CE13802A414A}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="POS"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:C101" xr:uid="{C4586E1C-8DF8-45A6-A9EA-CE13802A414A}"/>
   <hyperlinks>
     <hyperlink ref="B61" r:id="rId1" xr:uid="{D5864DC2-6911-4832-85F0-7E97A621681A}"/>
   </hyperlinks>
